--- a/modules/Output.xlsx
+++ b/modules/Output.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M1"/>
+  <dimension ref="B1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
@@ -425,7 +425,7 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>До 18 лет</t>
+          <t>Замужем</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -440,7 +440,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>От 4 до 7 лет</t>
+          <t>От 7 до 14 лет</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -455,32 +455,94 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Хобби</t>
+          <t>Безопасность</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Режим дня</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Интересны оба варианта</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Комбинезон</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Замужем</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 ребенок</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>От 7 до 14 лет</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Отдых</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Режим дня</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Хочу на море</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Интересен вариант с текстом</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Комбинезон</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>От 3000 до 4000 рублей</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Худи</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3000</t>
         </is>
       </c>
     </row>
